--- a/farmServer/config/Craft.xlsx
+++ b/farmServer/config/Craft.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davion\Desktop\Farm配置表\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,34 @@
   </si>
   <si>
     <t>2002_1|1001_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -481,68 +509,68 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2">
-        <v>201</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B3">
-        <v>701</v>
+        <v>201</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>90</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -550,22 +578,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B4">
-        <v>601</v>
+        <v>701</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -573,24 +601,47 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>601</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>180</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>702</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>360</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -605,7 +656,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/farmServer/config/Craft.xlsx
+++ b/farmServer/config/Craft.xlsx
@@ -1,85 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project Files\Farm\豆瓜配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目空间\农场\farmServer\farmServer\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CraftTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>PreBuilding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OutputNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Unlocklv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>物品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>前置建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>输出数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>合成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>产出经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>解锁等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2001_2|2002_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -96,23 +96,563 @@
       </rPr>
       <t>_1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>工坊示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>农田示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属建筑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出经验</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>豌豆</t>
+  </si>
+  <si>
+    <t>鸡饲料</t>
+  </si>
+  <si>
+    <t>牛饲料</t>
+  </si>
+  <si>
+    <t>羊饲料</t>
+  </si>
+  <si>
+    <t>鱼饲料</t>
+  </si>
+  <si>
+    <t>鸭饲料</t>
+  </si>
+  <si>
+    <t>鱼肉</t>
+  </si>
+  <si>
+    <t>橙汁</t>
+  </si>
+  <si>
+    <t>芒果汁</t>
+  </si>
+  <si>
+    <t>猕猴桃汁</t>
+  </si>
+  <si>
+    <t>柚子汁</t>
+  </si>
+  <si>
+    <t>菠萝汁</t>
+  </si>
+  <si>
+    <t>苹果汁</t>
+  </si>
+  <si>
+    <t>水蜜桃汁</t>
+  </si>
+  <si>
+    <t>葡萄汁</t>
+  </si>
+  <si>
+    <t>椰汁</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>梨</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>水蜜桃</t>
+  </si>
+  <si>
+    <t>橙子</t>
+  </si>
+  <si>
+    <t>柚子</t>
+  </si>
+  <si>
+    <t>杏</t>
+  </si>
+  <si>
+    <t>樱桃</t>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+  </si>
+  <si>
+    <t>菠萝</t>
+  </si>
+  <si>
+    <t>柿子</t>
+  </si>
+  <si>
+    <t>黄桃</t>
+  </si>
+  <si>
+    <t>枣</t>
+  </si>
+  <si>
+    <t>核桃</t>
+  </si>
+  <si>
+    <t>石榴</t>
+  </si>
+  <si>
+    <t>荔枝</t>
+  </si>
+  <si>
+    <t>菠萝蜜</t>
+  </si>
+  <si>
+    <t>木瓜</t>
+  </si>
+  <si>
+    <t>龙眼</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>灯笼果</t>
+  </si>
+  <si>
+    <t>茶树</t>
+  </si>
+  <si>
+    <t>茉莉</t>
+  </si>
+  <si>
+    <t>紫薯</t>
+  </si>
+  <si>
+    <t>香芋</t>
+  </si>
+  <si>
+    <t>山药</t>
+  </si>
+  <si>
+    <t>木耳</t>
+  </si>
+  <si>
+    <t>银耳</t>
+  </si>
+  <si>
+    <t>芒果</t>
+  </si>
+  <si>
+    <t>绿茶</t>
+  </si>
+  <si>
+    <t>红茶</t>
+  </si>
+  <si>
+    <t>花茶</t>
+  </si>
+  <si>
+    <t>乌龙茶</t>
+  </si>
+  <si>
+    <t>罐装蜂蜜</t>
+  </si>
+  <si>
+    <t>罐装牛奶</t>
+  </si>
+  <si>
+    <t>细线</t>
+  </si>
+  <si>
+    <t>毛线</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>毛衣</t>
+  </si>
+  <si>
+    <t>衬衫</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>鲜牛奶</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>鸭蛋</t>
+  </si>
+  <si>
+    <t>蜂巢</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>104_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>113_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>108_3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>105_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>109_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>103_3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>102_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20122_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20122_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20122_1|20123_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20122_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20205_5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20201_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20300_1</t>
+  </si>
+  <si>
+    <t>20301_1</t>
+  </si>
+  <si>
+    <t>20302_1</t>
+  </si>
+  <si>
+    <t>20303_1</t>
+  </si>
+  <si>
+    <t>20304_1</t>
+  </si>
+  <si>
+    <t>10000_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10005_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10006_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10007_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20202_</t>
     </r>
     <r>
       <rPr>
@@ -123,56 +663,278 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002_1|1001_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20202_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20700_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>700</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2|20702_4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20701_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10000_2|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10001_4|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002_3</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10001_3|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0002_2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10000_4|1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10000_2|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001_1|20203_1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,6 +948,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -209,21 +978,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,158 +1315,1598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="12">
+        <v>180</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="12">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="12">
+        <v>900</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="11">
+        <v>14400</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="11">
+        <v>14400</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="11">
+        <v>14400</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="12">
+        <v>201</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="11">
+        <v>28800</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11">
+        <v>201</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="11">
+        <v>28800</v>
+      </c>
+      <c r="G10" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10100</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="13">
+        <v>28800</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>10101</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="13">
+        <v>28800</v>
+      </c>
+      <c r="G12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>10102</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>10103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G14" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>10104</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G15" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>10105</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>10106</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="13">
+        <v>28800</v>
+      </c>
+      <c r="G17" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>10107</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G18" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>10108</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>10109</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G20" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>10110</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G21" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>10111</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G22" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>10112</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="13">
+        <v>28800</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>10113</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G24" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>10114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G25" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>10115</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="13">
+        <v>43200</v>
+      </c>
+      <c r="G26" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>10116</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G27" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>10117</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G28" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>10118</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G29" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>10119</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G30" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>10120</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G31" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>10121</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="13">
+        <v>86400</v>
+      </c>
+      <c r="G32" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>10122</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="13">
+        <v>57600</v>
+      </c>
+      <c r="G33" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>10123</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="10">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="13">
+        <v>57600</v>
+      </c>
+      <c r="G34" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>20200</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3">
+        <v>500</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="14">
+        <v>900</v>
+      </c>
+      <c r="G35" s="4">
+        <v>15</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>20201</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="3">
+        <v>501</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1800</v>
+      </c>
+      <c r="G36" s="4">
+        <v>20</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>20202</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3">
+        <v>503</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2400</v>
+      </c>
+      <c r="G37" s="4">
+        <v>40</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>20203</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3">
+        <v>502</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="14">
+        <v>3000</v>
+      </c>
+      <c r="G38" s="4">
+        <v>30</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>20204</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="3">
+        <v>504</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="14">
+        <v>3600</v>
+      </c>
+      <c r="G39" s="4">
+        <v>60</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>20205</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="3">
+        <v>505</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="14">
+        <v>5400</v>
+      </c>
+      <c r="G40" s="4">
+        <v>90</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>20300</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3">
-        <v>201</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C41" s="3">
+        <v>700</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="12">
+        <v>600</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>20301</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="3">
+        <v>700</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>20302</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="3">
+        <v>700</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G43" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>20303</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="3">
+        <v>700</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="12">
+        <v>900</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>20304</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="3">
+        <v>700</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="12">
+        <v>3600</v>
+      </c>
+      <c r="G45" s="2">
+        <v>60</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>20400</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="11">
+        <v>701</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="15">
+        <v>1200</v>
+      </c>
+      <c r="G46" s="5">
+        <v>20</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>20401</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="2">
+        <v>701</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G47" s="5">
+        <v>25</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>20402</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2">
+        <v>701</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
+      <c r="F48" s="15">
+        <v>2400</v>
+      </c>
+      <c r="G48" s="5">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>20403</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="2">
         <v>701</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="5">
+        <v>50</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>20404</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2">
+        <v>701</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="15">
+        <v>1800</v>
+      </c>
+      <c r="G50" s="5">
+        <v>30</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>20405</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2">
+        <v>701</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1200</v>
+      </c>
+      <c r="G51" s="5">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>20406</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="2">
+        <v>701</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="15">
+        <v>2400</v>
+      </c>
+      <c r="G52" s="5">
+        <v>40</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>20407</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="2">
+        <v>701</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1800</v>
+      </c>
+      <c r="G53" s="5">
+        <v>30</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>20408</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="2">
+        <v>701</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="15">
+        <v>3600</v>
+      </c>
+      <c r="G54" s="5">
+        <v>60</v>
+      </c>
+      <c r="J54" s="3"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>20500</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2">
+        <v>705</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G55" s="2">
+        <v>30</v>
+      </c>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>20501</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="2">
+        <v>705</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2400</v>
+      </c>
+      <c r="G56" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>20502</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="2">
+        <v>705</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="2">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>20503</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2">
+        <v>705</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="12">
+        <v>3600</v>
+      </c>
+      <c r="G58" s="2">
+        <v>60</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>20600</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="2">
+        <v>704</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="12">
+        <v>5400</v>
+      </c>
+      <c r="G59" s="2">
         <v>90</v>
       </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>601</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="J59" s="3"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>20601</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2">
+        <v>702</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G60" s="2">
+        <v>50</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>20700</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2">
+        <v>703</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G61" s="2">
+        <v>30</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>20701</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2">
+        <v>703</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="12">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>180</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>702</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>360</v>
-      </c>
-      <c r="F6" s="1">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
+      <c r="J62" s="3"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>20702</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="2">
+        <v>703</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F63" s="12">
+        <v>2400</v>
+      </c>
+      <c r="G63" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>20703</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" s="2">
+        <v>703</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="12">
+        <v>3600</v>
+      </c>
+      <c r="G64" s="2">
+        <v>60</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>20704</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2">
+        <v>703</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="12">
+        <v>3000</v>
+      </c>
+      <c r="G65" s="2">
+        <v>50</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -656,12 +2915,15 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +2946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -707,7 +2969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
@@ -733,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -760,7 +3022,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>